--- a/3/zssessentials/src/main/webapp/WEB-INF/books/customFunction.xlsx
+++ b/3/zssessentials/src/main/webapp/WEB-INF/books/customFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="custom-formula" sheetId="1" r:id="rId1"/>
@@ -44,15 +44,6 @@
     <t>EXCHANGE</t>
   </si>
   <si>
-    <t xml:space="preserve"> =CHAIN(D1:G1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =CHAIN(D3,E3,F3,G3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =CHAIN(D5:G5)</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -86,12 +77,6 @@
     <t xml:space="preserve"> =MYSUBTOTAL(D11:G11)</t>
   </si>
   <si>
-    <t xml:space="preserve"> =MYSUBTOTAL(D13:G13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =MYEXCHANGE(D6, E6)</t>
-  </si>
-  <si>
     <t>MYEXCHANGE</t>
   </si>
   <si>
@@ -99,6 +84,21 @@
   </si>
   <si>
     <t xml:space="preserve"> =MYSUBTOTAL(D13, E13, F13, G13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYSUBTOTAL(D7:G7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =MYEXCHANGE(D5, E5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN(D4:G4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN(D6:G6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CHAIN(D8,E8,F8,G8)</t>
   </si>
 </sst>
 </file>
@@ -220,84 +220,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -309,7 +241,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -588,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,20 +534,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="3"/>
@@ -626,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="e">
         <f ca="1">EXCHANGE(D3,E3)</f>
@@ -640,11 +572,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -661,14 +593,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="e">
         <f ca="1">MYSUBTOTAL(D7:G7)</f>
@@ -688,14 +620,14 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="e">
         <f ca="1">MYSUBTOTAL(D9:G9)</f>
@@ -712,14 +644,14 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="e">
         <f ca="1">MYSUBTOTAL(D11:G11)</f>
@@ -739,11 +671,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="e">
         <f ca="1">MYSUBTOTAL(D13, E13, F13, G13)</f>
@@ -775,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,27 +720,27 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="e">
         <f ca="1">CHAIN("A","B","C","D")</f>
@@ -830,10 +762,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="e">
         <f ca="1">CHAIN(D4:G4)</f>
@@ -866,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="e">
         <f ca="1">CHAIN(D6:G6)</f>
@@ -894,10 +826,10 @@
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="e">
         <f ca="1">CHAIN(D8,E8,F8,G8)</f>
